--- a/docs/mobile-attack-v11.2/mobile-attack-v11.2-software.xlsx
+++ b/docs/mobile-attack-v11.2/mobile-attack-v11.2-software.xlsx
@@ -1483,7 +1483,7 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
+    <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
   </si>
   <si>
     <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
@@ -1507,7 +1507,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: Zimperium z9)</t>
+    <t>,(Citation: Zimperium z9),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -1615,7 +1615,7 @@
     <t>,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
+    <t>,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
     <t>,(Citation: Bitdefender Mandrake)</t>
@@ -1627,7 +1627,7 @@
     <t>,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
+    <t>,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-NotCompatible)</t>
@@ -1687,7 +1687,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016)</t>
+    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -1699,7 +1699,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
+    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>
@@ -1723,7 +1723,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
   </si>
   <si>
     <t>,</t>
